--- a/project_1/data for project.xlsx
+++ b/project_1/data for project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignat\Desktop\python\datastructures\project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BD40D2-AD58-4943-9B11-D02FF8196323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38F8302-1EEE-4763-BF8C-6D95788CBDE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4540090-5B50-4274-8C4D-C36D299C5F12}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>1000 Inc Ins</t>
   </si>
@@ -124,12 +124,33 @@
   <si>
     <t>10000 Ran Sel</t>
   </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>Increasing Order</t>
+  </si>
+  <si>
+    <t>Decreasing Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion </t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,16 +158,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,12 +195,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,6 +234,3344 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Insertion Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$4:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49E7-4BB1-B9ED-4502416BA400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Selection Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$4:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9717999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.718799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.931600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49E7-4BB1-B9ED-4502416BA400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="594967032"/>
+        <c:axId val="594965064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="594967032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Entries</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in Array</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594965064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="594965064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594967032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Insertion Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$12:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$12:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.10300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6406000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9627999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.643799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7F1-4A8C-B011-B6B018040463}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Selection Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$12:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$12:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76260000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0376000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7906000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.1218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7F1-4A8C-B011-B6B018040463}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="293085208"/>
+        <c:axId val="293087832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="293085208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Entries</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in Array</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293087832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="293087832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293085208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Insertion Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$20:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$20:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.3399999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3373999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A11-49D6-ABDF-2A4C2AFF4441}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Selection Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$20:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$20:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75639999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A11-49D6-ABDF-2A4C2AFF4441}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="627672592"/>
+        <c:axId val="627676856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="627672592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Entries in Array</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627676856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="627676856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627672592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7263E899-27FB-4508-951D-DAF0025086EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FA9AF0-890D-4425-81B1-4DD1A4531C17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8796E17E-5750-4D8C-B0BF-60EA619DD2C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,10 +3871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6FBDFD-4707-4C94-93E9-DBCEE74FABC0}">
-  <dimension ref="B3:L28"/>
+  <dimension ref="B1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,628 +3902,937 @@
     <col min="23" max="23" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.125</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.75</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>2.9689999999999999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>6.6719999999999997</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>11.875</v>
       </c>
+      <c r="O4">
+        <v>1000</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>AVERAGE(D4:D8)</f>
+        <v>0.12179999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.125</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0.73399999999999999</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>2.984</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>6.766</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>12.063000000000001</v>
       </c>
+      <c r="O5">
+        <v>2500</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>AVERAGE(F4:F8)</f>
+        <v>0.73719999999999997</v>
+      </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.109</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.71799999999999997</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>2.9369999999999998</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>6.609</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>11.813000000000001</v>
       </c>
+      <c r="O6">
+        <v>5000</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>AVERAGE(H4:H8)</f>
+        <v>2.9717999999999996</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.125</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.73399999999999999</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>2.9529999999999998</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>6.766</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>11.813000000000001</v>
       </c>
+      <c r="O7">
+        <v>7500</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>AVERAGE(J4:J8)</f>
+        <v>6.718799999999999</v>
+      </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.125</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0.75</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>3.016</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>6.7809999999999997</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>12.093999999999999</v>
       </c>
+      <c r="O8">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>AVERAGE(L4:L8)</f>
+        <v>11.931600000000001</v>
+      </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="O12">
+        <v>1000</v>
+      </c>
+      <c r="P12" s="1">
+        <f>AVERAGE(C15:C19)</f>
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>AVERAGE(D15:D19)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="O13">
+        <v>2500</v>
+      </c>
+      <c r="P13" s="1">
+        <f>AVERAGE(E15:E19)</f>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>AVERAGE(F15:F19)</f>
+        <v>0.76260000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="O14">
+        <v>5000</v>
+      </c>
+      <c r="P14" s="1">
+        <f>AVERAGE(G15:G19)</f>
+        <v>2.6406000000000001</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>AVERAGE(H15:H19)</f>
+        <v>3.0376000000000003</v>
+      </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>9.4E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.125</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.65600000000000003</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>0.76600000000000001</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>2.7029999999999998</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>3.016</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>6.0940000000000003</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>6.8440000000000003</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>10.875</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>12.202999999999999</v>
       </c>
+      <c r="O15">
+        <v>7500</v>
+      </c>
+      <c r="P15" s="1">
+        <f>AVERAGE(I15:I19)</f>
+        <v>5.9627999999999997</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>AVERAGE(J15:J19)</f>
+        <v>6.7906000000000004</v>
+      </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>0.109</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0.125</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>0.64100000000000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>0.75</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>2.625</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>3.109</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>5.891</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>6.859</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>10.577999999999999</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>12.266</v>
       </c>
+      <c r="O16">
+        <v>10000</v>
+      </c>
+      <c r="P16" s="1">
+        <f>AVERAGE(K15:K19)</f>
+        <v>10.643799999999999</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>AVERAGE(L15:L19)</f>
+        <v>12.1218</v>
+      </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>0.109</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>0.125</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>0.64100000000000001</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.76600000000000001</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>2.609</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>2.984</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>5.9219999999999997</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>6.6719999999999997</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>10.563000000000001</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>11.906000000000001</v>
       </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
         <v>4</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>9.4E-2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>0.125</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>0.65600000000000003</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>0.75</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>2.625</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>3.016</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>5.9690000000000003</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>6.7190000000000003</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>10.577999999999999</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>11.952999999999999</v>
       </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>0.109</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>0.125</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>0.65600000000000003</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0.78100000000000003</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>2.641</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>3.0630000000000002</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>5.9379999999999997</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>6.859</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>10.625</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>12.281000000000001</v>
       </c>
+      <c r="O19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="O20">
+        <v>1000</v>
+      </c>
+      <c r="P20" s="1">
+        <f>AVERAGE(C24:C28)</f>
+        <v>5.3399999999999989E-2</v>
+      </c>
+      <c r="Q20" s="2">
+        <f>AVERAGE(D24:D28)</f>
+        <v>0.12179999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="O21">
+        <v>2500</v>
+      </c>
+      <c r="P21" s="1">
+        <f>AVERAGE(E24:E28)</f>
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="Q21" s="2">
+        <f>AVERAGE(F24:F28)</f>
+        <v>0.75639999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="O22">
+        <v>5000</v>
+      </c>
+      <c r="P22" s="1">
+        <f>AVERAGE(G24:G28)</f>
+        <v>1.3406</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>AVERAGE(H24:H28)</f>
+        <v>3.0309999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="O23">
+        <v>7500</v>
+      </c>
+      <c r="P23" s="1">
+        <f>AVERAGE(I24:I28)</f>
+        <v>3.0219999999999998</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>AVERAGE(J24:J28)</f>
+        <v>6.7744</v>
+      </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>6.3E-2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>0.109</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>0.32800000000000001</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>0.76600000000000001</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>1.359</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>3.0779999999999998</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>3.0779999999999998</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>6.8129999999999997</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>5.4219999999999997</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>12.077999999999999</v>
       </c>
+      <c r="O24">
+        <v>10000</v>
+      </c>
+      <c r="P24" s="1">
+        <f>AVERAGE(K24:K28)</f>
+        <v>5.3373999999999997</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>AVERAGE(L24:L28)</f>
+        <v>12.0532</v>
+      </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
         <v>2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>6.3E-2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>0.125</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>0.32800000000000001</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>0.75</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>1.375</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>3.0310000000000001</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>3.016</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>6.8559999999999999</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>5.2809999999999997</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>12.25</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>0.125</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>0.313</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>0.76600000000000001</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>1.3280000000000001</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>2.984</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>3.0310000000000001</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>6.6559999999999997</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>5.359</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>11.859</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>0.125</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>0.313</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>0.75</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>1.3280000000000001</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>2.984</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>3.016</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>6.6879999999999997</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>5.25</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>11.938000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>0.125</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>0.32800000000000001</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>0.75</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>1.3129999999999999</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>3.0779999999999998</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>2.9689999999999999</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>6.859</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>5.375</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>12.141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>